--- a/books.xlsx
+++ b/books.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C776E12B-6B47-4EC7-86F7-2841BE87DF8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC57E7-1EFA-4D32-8955-00C635F4F6D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Java_The_Complete_Reference_Ninth_Editio.pdf</t>
+  </si>
+  <si>
+    <t>Clean Code Book.pdf</t>
+  </si>
+  <si>
+    <t>confluent-kafka-definitive-guide-complete.pdf</t>
+  </si>
+  <si>
+    <t>git-essentials-2nd.pdf</t>
+  </si>
+  <si>
+    <t>scala-java-developers-practical-primer.pdf</t>
+  </si>
+  <si>
+    <t>building-data-streaming-applications-apache-kafka.pdf</t>
+  </si>
+  <si>
+    <t>kafka-definitive-guide.pdf</t>
+  </si>
+  <si>
+    <t>effective-java-3rd.pdf</t>
+  </si>
+  <si>
+    <t>RESTful Java Web Services Security.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/aisuhua/books-1</t>
   </si>
 </sst>
 </file>
@@ -58,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -351,12 +379,56 @@
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/books.xlsx
+++ b/books.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC57E7-1EFA-4D32-8955-00C635F4F6D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954C322B-1E32-4DDA-A5EB-1BDFEB47855B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Java_The_Complete_Reference_Ninth_Editio.pdf</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>https://github.com/aisuhua/books-1</t>
+  </si>
+  <si>
+    <t>Web Services Testing with soapUI (English Edition).pdf</t>
   </si>
 </sst>
 </file>
@@ -368,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,6 +430,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/books.xlsx
+++ b/books.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954C322B-1E32-4DDA-A5EB-1BDFEB47855B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB436071-AFD7-444A-A0F4-8F5B849AFC1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Java_The_Complete_Reference_Ninth_Editio.pdf</t>
   </si>
@@ -53,6 +53,33 @@
   </si>
   <si>
     <t>Web Services Testing with soapUI (English Edition).pdf</t>
+  </si>
+  <si>
+    <t>Building a RESTful Web Service with Spring.pdf</t>
+  </si>
+  <si>
+    <t>Mastering.Oracle.SQL.and.SQLPlus</t>
+  </si>
+  <si>
+    <t>Spring Cookbook.pdf</t>
+  </si>
+  <si>
+    <t>Spring Boot Cookbook.pdf</t>
+  </si>
+  <si>
+    <t>Spring Microservices.pdf</t>
+  </si>
+  <si>
+    <t>building-microservices-with-spring-boot-sample.pdf</t>
+  </si>
+  <si>
+    <t>mockito-for-spring.pdf</t>
+  </si>
+  <si>
+    <t>oracle_12c_sql.pdf</t>
+  </si>
+  <si>
+    <t>apress-beginning-oracle-sql-for-oracle-database-12c-3rd-2014.pdf</t>
   </si>
 </sst>
 </file>
@@ -371,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,6 +462,51 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
